--- a/scenario/data_new6.xlsx
+++ b/scenario/data_new6.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="单风场数据" sheetId="14" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -44,7 +45,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +75,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -95,10 +114,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -403,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X1034"/>
+  <dimension ref="A1:Z1034"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1006" workbookViewId="0">
-      <selection activeCell="O1042" sqref="O1042"/>
+      <selection activeCell="R1046" sqref="R1046"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -74508,7 +74529,7 @@
         <v>164.04499999999999</v>
       </c>
     </row>
-    <row r="1009" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="1009" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1009">
         <v>146.27099999999999</v>
       </c>
@@ -74582,12 +74603,12 @@
         <v>288.45499999999998</v>
       </c>
     </row>
-    <row r="1014" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="1014" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1014" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="1015" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="1015" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1015">
         <v>214.83799999999999</v>
       </c>
@@ -74660,8 +74681,11 @@
       <c r="X1015">
         <v>158.215</v>
       </c>
-    </row>
-    <row r="1016" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Z1015" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1016">
         <v>214.83799999999999</v>
       </c>
@@ -74734,8 +74758,11 @@
       <c r="X1016">
         <v>218.51900000000001</v>
       </c>
-    </row>
-    <row r="1017" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Z1016" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1017">
         <v>214.83799999999999</v>
       </c>
@@ -74808,8 +74835,11 @@
       <c r="X1017">
         <v>196.23599999999999</v>
       </c>
-    </row>
-    <row r="1018" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Z1017" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1018">
         <v>214.83799999999999</v>
       </c>
@@ -74882,8 +74912,11 @@
       <c r="X1018">
         <v>194.083</v>
       </c>
-    </row>
-    <row r="1019" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Z1018" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1019">
         <v>214.83799999999999</v>
       </c>
@@ -74956,8 +74989,11 @@
       <c r="X1019">
         <v>183.94</v>
       </c>
-    </row>
-    <row r="1020" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Z1019" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1020">
         <v>214.83799999999999</v>
       </c>
@@ -75030,8 +75066,11 @@
       <c r="X1020">
         <v>168.85900000000001</v>
       </c>
-    </row>
-    <row r="1021" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Z1020" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1021">
         <v>214.83799999999999</v>
       </c>
@@ -75104,8 +75143,11 @@
       <c r="X1021">
         <v>217.04900000000001</v>
       </c>
-    </row>
-    <row r="1022" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Z1021" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1022">
         <v>214.83799999999999</v>
       </c>
@@ -75178,8 +75220,11 @@
       <c r="X1022">
         <v>173.22900000000001</v>
       </c>
-    </row>
-    <row r="1023" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Z1022" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1023">
         <v>214.83799999999999</v>
       </c>
@@ -75252,8 +75297,11 @@
       <c r="X1023">
         <v>118.86199999999999</v>
       </c>
-    </row>
-    <row r="1024" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Z1023" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1024">
         <v>214.83799999999999</v>
       </c>
@@ -75326,8 +75374,11 @@
       <c r="X1024">
         <v>213.98</v>
       </c>
-    </row>
-    <row r="1025" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Z1024" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1025">
         <v>214.83799999999999</v>
       </c>
@@ -75400,8 +75451,11 @@
       <c r="X1025">
         <v>133.541</v>
       </c>
-    </row>
-    <row r="1026" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Z1025" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1026">
         <v>214.83799999999999</v>
       </c>
@@ -75474,8 +75528,11 @@
       <c r="X1026">
         <v>146.774</v>
       </c>
-    </row>
-    <row r="1027" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Z1026" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1027">
         <v>214.83799999999999</v>
       </c>
@@ -75548,8 +75605,11 @@
       <c r="X1027">
         <v>196.828</v>
       </c>
-    </row>
-    <row r="1028" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Z1027" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1028">
         <v>214.83799999999999</v>
       </c>
@@ -75622,8 +75682,11 @@
       <c r="X1028">
         <v>201.602</v>
       </c>
-    </row>
-    <row r="1029" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Z1028" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1029">
         <v>214.83799999999999</v>
       </c>
@@ -75696,8 +75759,11 @@
       <c r="X1029">
         <v>125.16200000000001</v>
       </c>
-    </row>
-    <row r="1030" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Z1029" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1030">
         <v>214.83799999999999</v>
       </c>
@@ -75770,8 +75836,11 @@
       <c r="X1030">
         <v>147.33600000000001</v>
       </c>
-    </row>
-    <row r="1031" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Z1030" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1031">
         <v>214.83799999999999</v>
       </c>
@@ -75844,8 +75913,11 @@
       <c r="X1031">
         <v>128.624</v>
       </c>
-    </row>
-    <row r="1032" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Z1031" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1032">
         <v>214.83799999999999</v>
       </c>
@@ -75918,8 +75990,11 @@
       <c r="X1032">
         <v>157.91200000000001</v>
       </c>
-    </row>
-    <row r="1033" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Z1032" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1033">
         <v>183.994</v>
       </c>
@@ -75992,8 +76067,11 @@
       <c r="X1033">
         <v>170.45400000000001</v>
       </c>
-    </row>
-    <row r="1034" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Z1033" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1034">
         <v>214.83799999999999</v>
       </c>
@@ -76065,10 +76143,1519 @@
       </c>
       <c r="X1034">
         <v>226.59399999999999</v>
+      </c>
+      <c r="Z1034" s="3">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>214.83799999999999</v>
+      </c>
+      <c r="B1">
+        <v>214.83799999999999</v>
+      </c>
+      <c r="C1">
+        <v>214.83799999999999</v>
+      </c>
+      <c r="D1">
+        <v>214.83799999999999</v>
+      </c>
+      <c r="E1">
+        <v>214.83799999999999</v>
+      </c>
+      <c r="F1">
+        <v>214.83799999999999</v>
+      </c>
+      <c r="G1">
+        <v>214.83799999999999</v>
+      </c>
+      <c r="H1">
+        <v>214.83799999999999</v>
+      </c>
+      <c r="I1">
+        <v>214.83799999999999</v>
+      </c>
+      <c r="J1">
+        <v>214.83799999999999</v>
+      </c>
+      <c r="K1">
+        <v>214.83799999999999</v>
+      </c>
+      <c r="L1">
+        <v>214.83799999999999</v>
+      </c>
+      <c r="M1">
+        <v>214.83799999999999</v>
+      </c>
+      <c r="N1">
+        <v>214.83799999999999</v>
+      </c>
+      <c r="O1">
+        <v>214.83799999999999</v>
+      </c>
+      <c r="P1">
+        <v>214.83799999999999</v>
+      </c>
+      <c r="Q1">
+        <v>214.83799999999999</v>
+      </c>
+      <c r="R1">
+        <v>214.83799999999999</v>
+      </c>
+      <c r="S1">
+        <v>183.994</v>
+      </c>
+      <c r="T1">
+        <v>214.83799999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>227.928</v>
+      </c>
+      <c r="B2">
+        <v>227.928</v>
+      </c>
+      <c r="C2">
+        <v>227.928</v>
+      </c>
+      <c r="D2">
+        <v>227.928</v>
+      </c>
+      <c r="E2">
+        <v>227.928</v>
+      </c>
+      <c r="F2">
+        <v>227.928</v>
+      </c>
+      <c r="G2">
+        <v>227.928</v>
+      </c>
+      <c r="H2">
+        <v>227.928</v>
+      </c>
+      <c r="I2">
+        <v>227.928</v>
+      </c>
+      <c r="J2">
+        <v>227.928</v>
+      </c>
+      <c r="K2">
+        <v>227.928</v>
+      </c>
+      <c r="L2">
+        <v>227.928</v>
+      </c>
+      <c r="M2">
+        <v>227.928</v>
+      </c>
+      <c r="N2">
+        <v>227.928</v>
+      </c>
+      <c r="O2">
+        <v>227.928</v>
+      </c>
+      <c r="P2">
+        <v>227.928</v>
+      </c>
+      <c r="Q2">
+        <v>227.928</v>
+      </c>
+      <c r="R2">
+        <v>227.928</v>
+      </c>
+      <c r="S2">
+        <v>236.511</v>
+      </c>
+      <c r="T2">
+        <v>227.928</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>263.18400000000003</v>
+      </c>
+      <c r="B3">
+        <v>263.18400000000003</v>
+      </c>
+      <c r="C3">
+        <v>263.18400000000003</v>
+      </c>
+      <c r="D3">
+        <v>263.18400000000003</v>
+      </c>
+      <c r="E3">
+        <v>263.18400000000003</v>
+      </c>
+      <c r="F3">
+        <v>263.18400000000003</v>
+      </c>
+      <c r="G3">
+        <v>263.18400000000003</v>
+      </c>
+      <c r="H3">
+        <v>263.18400000000003</v>
+      </c>
+      <c r="I3">
+        <v>263.18400000000003</v>
+      </c>
+      <c r="J3">
+        <v>263.18400000000003</v>
+      </c>
+      <c r="K3">
+        <v>263.18400000000003</v>
+      </c>
+      <c r="L3">
+        <v>263.18400000000003</v>
+      </c>
+      <c r="M3">
+        <v>263.18400000000003</v>
+      </c>
+      <c r="N3">
+        <v>263.18400000000003</v>
+      </c>
+      <c r="O3">
+        <v>263.18400000000003</v>
+      </c>
+      <c r="P3">
+        <v>263.18400000000003</v>
+      </c>
+      <c r="Q3">
+        <v>263.18400000000003</v>
+      </c>
+      <c r="R3">
+        <v>263.18400000000003</v>
+      </c>
+      <c r="S3">
+        <v>262.11500000000001</v>
+      </c>
+      <c r="T3">
+        <v>263.18400000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>265.86</v>
+      </c>
+      <c r="B4">
+        <v>265.86</v>
+      </c>
+      <c r="C4">
+        <v>265.86</v>
+      </c>
+      <c r="D4">
+        <v>265.86</v>
+      </c>
+      <c r="E4">
+        <v>265.86</v>
+      </c>
+      <c r="F4">
+        <v>265.86</v>
+      </c>
+      <c r="G4">
+        <v>265.86</v>
+      </c>
+      <c r="H4">
+        <v>265.86</v>
+      </c>
+      <c r="I4">
+        <v>265.86</v>
+      </c>
+      <c r="J4">
+        <v>265.86</v>
+      </c>
+      <c r="K4">
+        <v>265.86</v>
+      </c>
+      <c r="L4">
+        <v>265.86</v>
+      </c>
+      <c r="M4">
+        <v>265.86</v>
+      </c>
+      <c r="N4">
+        <v>265.86</v>
+      </c>
+      <c r="O4">
+        <v>265.86</v>
+      </c>
+      <c r="P4">
+        <v>265.86</v>
+      </c>
+      <c r="Q4">
+        <v>265.86</v>
+      </c>
+      <c r="R4">
+        <v>265.86</v>
+      </c>
+      <c r="S4">
+        <v>117.32</v>
+      </c>
+      <c r="T4">
+        <v>265.86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>252.19200000000001</v>
+      </c>
+      <c r="B5">
+        <v>252.19200000000001</v>
+      </c>
+      <c r="C5">
+        <v>252.19200000000001</v>
+      </c>
+      <c r="D5">
+        <v>252.19200000000001</v>
+      </c>
+      <c r="E5">
+        <v>252.19200000000001</v>
+      </c>
+      <c r="F5">
+        <v>252.19200000000001</v>
+      </c>
+      <c r="G5">
+        <v>252.19200000000001</v>
+      </c>
+      <c r="H5">
+        <v>252.19200000000001</v>
+      </c>
+      <c r="I5">
+        <v>252.19200000000001</v>
+      </c>
+      <c r="J5">
+        <v>252.19200000000001</v>
+      </c>
+      <c r="K5">
+        <v>252.19200000000001</v>
+      </c>
+      <c r="L5">
+        <v>252.19200000000001</v>
+      </c>
+      <c r="M5">
+        <v>252.19200000000001</v>
+      </c>
+      <c r="N5">
+        <v>252.19200000000001</v>
+      </c>
+      <c r="O5">
+        <v>252.19200000000001</v>
+      </c>
+      <c r="P5">
+        <v>252.19200000000001</v>
+      </c>
+      <c r="Q5">
+        <v>252.19200000000001</v>
+      </c>
+      <c r="R5">
+        <v>252.19200000000001</v>
+      </c>
+      <c r="S5">
+        <v>300</v>
+      </c>
+      <c r="T5">
+        <v>252.19200000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>300</v>
+      </c>
+      <c r="B6">
+        <v>300</v>
+      </c>
+      <c r="C6">
+        <v>300</v>
+      </c>
+      <c r="D6">
+        <v>300</v>
+      </c>
+      <c r="E6">
+        <v>300</v>
+      </c>
+      <c r="F6">
+        <v>300</v>
+      </c>
+      <c r="G6">
+        <v>300</v>
+      </c>
+      <c r="H6">
+        <v>300</v>
+      </c>
+      <c r="I6">
+        <v>300</v>
+      </c>
+      <c r="J6">
+        <v>300</v>
+      </c>
+      <c r="K6">
+        <v>300</v>
+      </c>
+      <c r="L6">
+        <v>300</v>
+      </c>
+      <c r="M6">
+        <v>300</v>
+      </c>
+      <c r="N6">
+        <v>300</v>
+      </c>
+      <c r="O6">
+        <v>300</v>
+      </c>
+      <c r="P6">
+        <v>300</v>
+      </c>
+      <c r="Q6">
+        <v>300</v>
+      </c>
+      <c r="R6">
+        <v>300</v>
+      </c>
+      <c r="S6">
+        <v>272.11900000000003</v>
+      </c>
+      <c r="T6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>244.863</v>
+      </c>
+      <c r="B7">
+        <v>300</v>
+      </c>
+      <c r="C7">
+        <v>244.863</v>
+      </c>
+      <c r="D7">
+        <v>244.863</v>
+      </c>
+      <c r="E7">
+        <v>244.863</v>
+      </c>
+      <c r="F7">
+        <v>244.863</v>
+      </c>
+      <c r="G7">
+        <v>244.863</v>
+      </c>
+      <c r="H7">
+        <v>244.863</v>
+      </c>
+      <c r="I7">
+        <v>244.863</v>
+      </c>
+      <c r="J7">
+        <v>244.863</v>
+      </c>
+      <c r="K7">
+        <v>244.863</v>
+      </c>
+      <c r="L7">
+        <v>244.863</v>
+      </c>
+      <c r="M7">
+        <v>244.863</v>
+      </c>
+      <c r="N7">
+        <v>244.863</v>
+      </c>
+      <c r="O7">
+        <v>244.863</v>
+      </c>
+      <c r="P7">
+        <v>244.863</v>
+      </c>
+      <c r="Q7">
+        <v>244.863</v>
+      </c>
+      <c r="R7">
+        <v>244.863</v>
+      </c>
+      <c r="S7">
+        <v>300</v>
+      </c>
+      <c r="T7">
+        <v>244.863</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>300</v>
+      </c>
+      <c r="B8">
+        <v>300</v>
+      </c>
+      <c r="C8">
+        <v>300</v>
+      </c>
+      <c r="D8">
+        <v>300</v>
+      </c>
+      <c r="E8">
+        <v>300</v>
+      </c>
+      <c r="F8">
+        <v>300</v>
+      </c>
+      <c r="G8">
+        <v>300</v>
+      </c>
+      <c r="H8">
+        <v>300</v>
+      </c>
+      <c r="I8">
+        <v>300</v>
+      </c>
+      <c r="J8">
+        <v>300</v>
+      </c>
+      <c r="K8">
+        <v>300</v>
+      </c>
+      <c r="L8">
+        <v>300</v>
+      </c>
+      <c r="M8">
+        <v>300</v>
+      </c>
+      <c r="N8">
+        <v>300</v>
+      </c>
+      <c r="O8">
+        <v>300</v>
+      </c>
+      <c r="P8">
+        <v>300</v>
+      </c>
+      <c r="Q8">
+        <v>300</v>
+      </c>
+      <c r="R8">
+        <v>300</v>
+      </c>
+      <c r="S8">
+        <v>300</v>
+      </c>
+      <c r="T8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>300</v>
+      </c>
+      <c r="B9">
+        <v>300</v>
+      </c>
+      <c r="C9">
+        <v>290.21100000000001</v>
+      </c>
+      <c r="D9">
+        <v>290.21100000000001</v>
+      </c>
+      <c r="E9">
+        <v>290.21100000000001</v>
+      </c>
+      <c r="F9">
+        <v>290.21100000000001</v>
+      </c>
+      <c r="G9">
+        <v>290.21100000000001</v>
+      </c>
+      <c r="H9">
+        <v>290.21100000000001</v>
+      </c>
+      <c r="I9">
+        <v>259.86799999999999</v>
+      </c>
+      <c r="J9">
+        <v>290.21100000000001</v>
+      </c>
+      <c r="K9">
+        <v>290.21100000000001</v>
+      </c>
+      <c r="L9">
+        <v>290.21100000000001</v>
+      </c>
+      <c r="M9">
+        <v>290.21100000000001</v>
+      </c>
+      <c r="N9">
+        <v>290.21100000000001</v>
+      </c>
+      <c r="O9">
+        <v>290.21100000000001</v>
+      </c>
+      <c r="P9">
+        <v>290.21100000000001</v>
+      </c>
+      <c r="Q9">
+        <v>290.21100000000001</v>
+      </c>
+      <c r="R9">
+        <v>290.21100000000001</v>
+      </c>
+      <c r="S9">
+        <v>291.072</v>
+      </c>
+      <c r="T9">
+        <v>290.21100000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>206.97200000000001</v>
+      </c>
+      <c r="B10">
+        <v>266.55099999999999</v>
+      </c>
+      <c r="C10">
+        <v>190.30500000000001</v>
+      </c>
+      <c r="D10">
+        <v>190.30500000000001</v>
+      </c>
+      <c r="E10">
+        <v>190.30500000000001</v>
+      </c>
+      <c r="F10">
+        <v>190.30500000000001</v>
+      </c>
+      <c r="G10">
+        <v>190.30500000000001</v>
+      </c>
+      <c r="H10">
+        <v>190.30500000000001</v>
+      </c>
+      <c r="I10">
+        <v>289.29700000000003</v>
+      </c>
+      <c r="J10">
+        <v>190.30500000000001</v>
+      </c>
+      <c r="K10">
+        <v>190.30500000000001</v>
+      </c>
+      <c r="L10">
+        <v>190.30500000000001</v>
+      </c>
+      <c r="M10">
+        <v>190.30500000000001</v>
+      </c>
+      <c r="N10">
+        <v>190.30500000000001</v>
+      </c>
+      <c r="O10">
+        <v>190.30500000000001</v>
+      </c>
+      <c r="P10">
+        <v>190.30500000000001</v>
+      </c>
+      <c r="Q10">
+        <v>190.30500000000001</v>
+      </c>
+      <c r="R10">
+        <v>190.30500000000001</v>
+      </c>
+      <c r="S10">
+        <v>300</v>
+      </c>
+      <c r="T10">
+        <v>190.30500000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>300</v>
+      </c>
+      <c r="B11">
+        <v>298.73099999999999</v>
+      </c>
+      <c r="C11">
+        <v>293.47300000000001</v>
+      </c>
+      <c r="D11">
+        <v>293.47300000000001</v>
+      </c>
+      <c r="E11">
+        <v>300</v>
+      </c>
+      <c r="F11">
+        <v>293.47300000000001</v>
+      </c>
+      <c r="G11">
+        <v>293.47300000000001</v>
+      </c>
+      <c r="H11">
+        <v>293.47300000000001</v>
+      </c>
+      <c r="I11">
+        <v>300</v>
+      </c>
+      <c r="J11">
+        <v>293.47300000000001</v>
+      </c>
+      <c r="K11">
+        <v>293.47300000000001</v>
+      </c>
+      <c r="L11">
+        <v>293.47300000000001</v>
+      </c>
+      <c r="M11">
+        <v>293.47300000000001</v>
+      </c>
+      <c r="N11">
+        <v>293.47300000000001</v>
+      </c>
+      <c r="O11">
+        <v>293.47300000000001</v>
+      </c>
+      <c r="P11">
+        <v>293.47300000000001</v>
+      </c>
+      <c r="Q11">
+        <v>293.47300000000001</v>
+      </c>
+      <c r="R11">
+        <v>293.47300000000001</v>
+      </c>
+      <c r="S11">
+        <v>300</v>
+      </c>
+      <c r="T11">
+        <v>293.47300000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>239.66800000000001</v>
+      </c>
+      <c r="B12">
+        <v>212.41300000000001</v>
+      </c>
+      <c r="C12">
+        <v>300</v>
+      </c>
+      <c r="D12">
+        <v>300</v>
+      </c>
+      <c r="E12">
+        <v>300</v>
+      </c>
+      <c r="F12">
+        <v>300</v>
+      </c>
+      <c r="G12">
+        <v>300</v>
+      </c>
+      <c r="H12">
+        <v>300</v>
+      </c>
+      <c r="I12">
+        <v>246.565</v>
+      </c>
+      <c r="J12">
+        <v>300</v>
+      </c>
+      <c r="K12">
+        <v>300</v>
+      </c>
+      <c r="L12">
+        <v>300</v>
+      </c>
+      <c r="M12">
+        <v>300</v>
+      </c>
+      <c r="N12">
+        <v>300</v>
+      </c>
+      <c r="O12">
+        <v>300</v>
+      </c>
+      <c r="P12">
+        <v>300</v>
+      </c>
+      <c r="Q12">
+        <v>300</v>
+      </c>
+      <c r="R12">
+        <v>300</v>
+      </c>
+      <c r="S12">
+        <v>300</v>
+      </c>
+      <c r="T12">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>300</v>
+      </c>
+      <c r="B13">
+        <v>231.715</v>
+      </c>
+      <c r="C13">
+        <v>300</v>
+      </c>
+      <c r="D13">
+        <v>300</v>
+      </c>
+      <c r="E13">
+        <v>300</v>
+      </c>
+      <c r="F13">
+        <v>300</v>
+      </c>
+      <c r="G13">
+        <v>300</v>
+      </c>
+      <c r="H13">
+        <v>300</v>
+      </c>
+      <c r="I13">
+        <v>178.136</v>
+      </c>
+      <c r="J13">
+        <v>300</v>
+      </c>
+      <c r="K13">
+        <v>300</v>
+      </c>
+      <c r="L13">
+        <v>300</v>
+      </c>
+      <c r="M13">
+        <v>300</v>
+      </c>
+      <c r="N13">
+        <v>300</v>
+      </c>
+      <c r="O13">
+        <v>300</v>
+      </c>
+      <c r="P13">
+        <v>300</v>
+      </c>
+      <c r="Q13">
+        <v>300</v>
+      </c>
+      <c r="R13">
+        <v>300</v>
+      </c>
+      <c r="S13">
+        <v>265.24799999999999</v>
+      </c>
+      <c r="T13">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>206.816</v>
+      </c>
+      <c r="B14">
+        <v>225.148</v>
+      </c>
+      <c r="C14">
+        <v>266.42</v>
+      </c>
+      <c r="D14">
+        <v>266.42</v>
+      </c>
+      <c r="E14">
+        <v>287.29000000000002</v>
+      </c>
+      <c r="F14">
+        <v>266.42</v>
+      </c>
+      <c r="G14">
+        <v>266.42</v>
+      </c>
+      <c r="H14">
+        <v>266.42</v>
+      </c>
+      <c r="I14">
+        <v>300</v>
+      </c>
+      <c r="J14">
+        <v>300</v>
+      </c>
+      <c r="K14">
+        <v>266.42</v>
+      </c>
+      <c r="L14">
+        <v>266.42</v>
+      </c>
+      <c r="M14">
+        <v>266.42</v>
+      </c>
+      <c r="N14">
+        <v>266.42</v>
+      </c>
+      <c r="O14">
+        <v>266.42</v>
+      </c>
+      <c r="P14">
+        <v>266.42</v>
+      </c>
+      <c r="Q14">
+        <v>266.42</v>
+      </c>
+      <c r="R14">
+        <v>280.05500000000001</v>
+      </c>
+      <c r="S14">
+        <v>298.14800000000002</v>
+      </c>
+      <c r="T14">
+        <v>266.42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>257.05500000000001</v>
+      </c>
+      <c r="B15">
+        <v>300</v>
+      </c>
+      <c r="C15">
+        <v>300</v>
+      </c>
+      <c r="D15">
+        <v>300</v>
+      </c>
+      <c r="E15">
+        <v>159.626</v>
+      </c>
+      <c r="F15">
+        <v>300</v>
+      </c>
+      <c r="G15">
+        <v>300</v>
+      </c>
+      <c r="H15">
+        <v>300</v>
+      </c>
+      <c r="I15">
+        <v>267.86399999999998</v>
+      </c>
+      <c r="J15">
+        <v>278.69799999999998</v>
+      </c>
+      <c r="K15">
+        <v>300</v>
+      </c>
+      <c r="L15">
+        <v>300</v>
+      </c>
+      <c r="M15">
+        <v>300</v>
+      </c>
+      <c r="N15">
+        <v>300</v>
+      </c>
+      <c r="O15">
+        <v>300</v>
+      </c>
+      <c r="P15">
+        <v>300</v>
+      </c>
+      <c r="Q15">
+        <v>300</v>
+      </c>
+      <c r="R15">
+        <v>272.69099999999997</v>
+      </c>
+      <c r="S15">
+        <v>278.173</v>
+      </c>
+      <c r="T15">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>221.80799999999999</v>
+      </c>
+      <c r="B16">
+        <v>172.011</v>
+      </c>
+      <c r="C16">
+        <v>221.93700000000001</v>
+      </c>
+      <c r="D16">
+        <v>300</v>
+      </c>
+      <c r="E16">
+        <v>217.66900000000001</v>
+      </c>
+      <c r="F16">
+        <v>193.31200000000001</v>
+      </c>
+      <c r="G16">
+        <v>300</v>
+      </c>
+      <c r="H16">
+        <v>300</v>
+      </c>
+      <c r="I16">
+        <v>300</v>
+      </c>
+      <c r="J16">
+        <v>300</v>
+      </c>
+      <c r="K16">
+        <v>300</v>
+      </c>
+      <c r="L16">
+        <v>300</v>
+      </c>
+      <c r="M16">
+        <v>300</v>
+      </c>
+      <c r="N16">
+        <v>300</v>
+      </c>
+      <c r="O16">
+        <v>300</v>
+      </c>
+      <c r="P16">
+        <v>300</v>
+      </c>
+      <c r="Q16">
+        <v>300</v>
+      </c>
+      <c r="R16">
+        <v>300</v>
+      </c>
+      <c r="S16">
+        <v>228.054</v>
+      </c>
+      <c r="T16">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>300</v>
+      </c>
+      <c r="B17">
+        <v>176.28899999999999</v>
+      </c>
+      <c r="C17">
+        <v>231.10499999999999</v>
+      </c>
+      <c r="D17">
+        <v>267.17200000000003</v>
+      </c>
+      <c r="E17">
+        <v>206.25200000000001</v>
+      </c>
+      <c r="F17">
+        <v>272.14800000000002</v>
+      </c>
+      <c r="G17">
+        <v>267.17200000000003</v>
+      </c>
+      <c r="H17">
+        <v>267.17200000000003</v>
+      </c>
+      <c r="I17">
+        <v>225.81200000000001</v>
+      </c>
+      <c r="J17">
+        <v>183.97200000000001</v>
+      </c>
+      <c r="K17">
+        <v>267.17200000000003</v>
+      </c>
+      <c r="L17">
+        <v>267.17200000000003</v>
+      </c>
+      <c r="M17">
+        <v>267.17200000000003</v>
+      </c>
+      <c r="N17">
+        <v>267.17200000000003</v>
+      </c>
+      <c r="O17">
+        <v>267.17200000000003</v>
+      </c>
+      <c r="P17">
+        <v>267.17200000000003</v>
+      </c>
+      <c r="Q17">
+        <v>267.17200000000003</v>
+      </c>
+      <c r="R17">
+        <v>199.83699999999999</v>
+      </c>
+      <c r="S17">
+        <v>143.696</v>
+      </c>
+      <c r="T17">
+        <v>267.17200000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>228.625</v>
+      </c>
+      <c r="B18">
+        <v>223.905</v>
+      </c>
+      <c r="C18">
+        <v>300</v>
+      </c>
+      <c r="D18">
+        <v>211.398</v>
+      </c>
+      <c r="E18">
+        <v>195.08</v>
+      </c>
+      <c r="F18">
+        <v>199.85300000000001</v>
+      </c>
+      <c r="G18">
+        <v>211.398</v>
+      </c>
+      <c r="H18">
+        <v>211.398</v>
+      </c>
+      <c r="I18">
+        <v>185.88900000000001</v>
+      </c>
+      <c r="J18">
+        <v>233.73699999999999</v>
+      </c>
+      <c r="K18">
+        <v>211.398</v>
+      </c>
+      <c r="L18">
+        <v>211.398</v>
+      </c>
+      <c r="M18">
+        <v>211.398</v>
+      </c>
+      <c r="N18">
+        <v>211.398</v>
+      </c>
+      <c r="O18">
+        <v>211.398</v>
+      </c>
+      <c r="P18">
+        <v>211.398</v>
+      </c>
+      <c r="Q18">
+        <v>211.398</v>
+      </c>
+      <c r="R18">
+        <v>216.99199999999999</v>
+      </c>
+      <c r="S18">
+        <v>243.44</v>
+      </c>
+      <c r="T18">
+        <v>211.398</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>133.947</v>
+      </c>
+      <c r="B19">
+        <v>196.93299999999999</v>
+      </c>
+      <c r="C19">
+        <v>217.744</v>
+      </c>
+      <c r="D19">
+        <v>203.02199999999999</v>
+      </c>
+      <c r="E19">
+        <v>149.273</v>
+      </c>
+      <c r="F19">
+        <v>130.89400000000001</v>
+      </c>
+      <c r="G19">
+        <v>203.02199999999999</v>
+      </c>
+      <c r="H19">
+        <v>203.02199999999999</v>
+      </c>
+      <c r="I19">
+        <v>241.256</v>
+      </c>
+      <c r="J19">
+        <v>242.43</v>
+      </c>
+      <c r="K19">
+        <v>234.26</v>
+      </c>
+      <c r="L19">
+        <v>203.02199999999999</v>
+      </c>
+      <c r="M19">
+        <v>203.02199999999999</v>
+      </c>
+      <c r="N19">
+        <v>203.02199999999999</v>
+      </c>
+      <c r="O19">
+        <v>203.02199999999999</v>
+      </c>
+      <c r="P19">
+        <v>134.22</v>
+      </c>
+      <c r="Q19">
+        <v>203.02199999999999</v>
+      </c>
+      <c r="R19">
+        <v>110.657</v>
+      </c>
+      <c r="S19">
+        <v>222.958</v>
+      </c>
+      <c r="T19">
+        <v>196.28100000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>204.09800000000001</v>
+      </c>
+      <c r="B20">
+        <v>280.48200000000003</v>
+      </c>
+      <c r="C20">
+        <v>228.90700000000001</v>
+      </c>
+      <c r="D20">
+        <v>189.58799999999999</v>
+      </c>
+      <c r="E20">
+        <v>257.38499999999999</v>
+      </c>
+      <c r="F20">
+        <v>137.47900000000001</v>
+      </c>
+      <c r="G20">
+        <v>189.58799999999999</v>
+      </c>
+      <c r="H20">
+        <v>189.58799999999999</v>
+      </c>
+      <c r="I20">
+        <v>177.08699999999999</v>
+      </c>
+      <c r="J20">
+        <v>166.101</v>
+      </c>
+      <c r="K20">
+        <v>247.43</v>
+      </c>
+      <c r="L20">
+        <v>189.58799999999999</v>
+      </c>
+      <c r="M20">
+        <v>189.58799999999999</v>
+      </c>
+      <c r="N20">
+        <v>189.58799999999999</v>
+      </c>
+      <c r="O20">
+        <v>189.58799999999999</v>
+      </c>
+      <c r="P20">
+        <v>157.102</v>
+      </c>
+      <c r="Q20">
+        <v>189.58799999999999</v>
+      </c>
+      <c r="R20">
+        <v>122.619</v>
+      </c>
+      <c r="S20">
+        <v>155.57900000000001</v>
+      </c>
+      <c r="T20">
+        <v>210.685</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>172.76400000000001</v>
+      </c>
+      <c r="B21">
+        <v>184.56200000000001</v>
+      </c>
+      <c r="C21">
+        <v>150.53800000000001</v>
+      </c>
+      <c r="D21">
+        <v>267.66500000000002</v>
+      </c>
+      <c r="E21">
+        <v>300</v>
+      </c>
+      <c r="F21">
+        <v>154.642</v>
+      </c>
+      <c r="G21">
+        <v>257.80099999999999</v>
+      </c>
+      <c r="H21">
+        <v>267.66500000000002</v>
+      </c>
+      <c r="I21">
+        <v>170.71</v>
+      </c>
+      <c r="J21">
+        <v>124.64</v>
+      </c>
+      <c r="K21">
+        <v>251.81100000000001</v>
+      </c>
+      <c r="L21">
+        <v>267.66500000000002</v>
+      </c>
+      <c r="M21">
+        <v>261.39299999999997</v>
+      </c>
+      <c r="N21">
+        <v>267.66500000000002</v>
+      </c>
+      <c r="O21">
+        <v>267.66500000000002</v>
+      </c>
+      <c r="P21">
+        <v>223.04400000000001</v>
+      </c>
+      <c r="Q21">
+        <v>201.65799999999999</v>
+      </c>
+      <c r="R21">
+        <v>218.15899999999999</v>
+      </c>
+      <c r="S21">
+        <v>181.005</v>
+      </c>
+      <c r="T21">
+        <v>264.46699999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>114.646</v>
+      </c>
+      <c r="B22">
+        <v>214.74799999999999</v>
+      </c>
+      <c r="C22">
+        <v>190.05699999999999</v>
+      </c>
+      <c r="D22">
+        <v>101.883</v>
+      </c>
+      <c r="E22">
+        <v>247.435</v>
+      </c>
+      <c r="F22">
+        <v>104.52800000000001</v>
+      </c>
+      <c r="G22">
+        <v>196.624</v>
+      </c>
+      <c r="H22">
+        <v>101.883</v>
+      </c>
+      <c r="I22">
+        <v>140.22300000000001</v>
+      </c>
+      <c r="J22">
+        <v>274.03199999999998</v>
+      </c>
+      <c r="K22">
+        <v>171.79300000000001</v>
+      </c>
+      <c r="L22">
+        <v>101.883</v>
+      </c>
+      <c r="M22">
+        <v>162.33000000000001</v>
+      </c>
+      <c r="N22">
+        <v>101.883</v>
+      </c>
+      <c r="O22">
+        <v>101.883</v>
+      </c>
+      <c r="P22">
+        <v>230.59100000000001</v>
+      </c>
+      <c r="Q22">
+        <v>222.82599999999999</v>
+      </c>
+      <c r="R22">
+        <v>181.55500000000001</v>
+      </c>
+      <c r="S22">
+        <v>227.52500000000001</v>
+      </c>
+      <c r="T22">
+        <v>208.61500000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>224.93799999999999</v>
+      </c>
+      <c r="B23">
+        <v>240.02500000000001</v>
+      </c>
+      <c r="C23">
+        <v>261.71300000000002</v>
+      </c>
+      <c r="D23">
+        <v>229.46600000000001</v>
+      </c>
+      <c r="E23">
+        <v>206.64</v>
+      </c>
+      <c r="F23">
+        <v>259.12799999999999</v>
+      </c>
+      <c r="G23">
+        <v>271.39400000000001</v>
+      </c>
+      <c r="H23">
+        <v>248.29499999999999</v>
+      </c>
+      <c r="I23">
+        <v>222.315</v>
+      </c>
+      <c r="J23">
+        <v>200.54599999999999</v>
+      </c>
+      <c r="K23">
+        <v>252.53299999999999</v>
+      </c>
+      <c r="L23">
+        <v>147.64699999999999</v>
+      </c>
+      <c r="M23">
+        <v>235.202</v>
+      </c>
+      <c r="N23">
+        <v>167.75299999999999</v>
+      </c>
+      <c r="O23">
+        <v>157.233</v>
+      </c>
+      <c r="P23">
+        <v>300</v>
+      </c>
+      <c r="Q23">
+        <v>165.97499999999999</v>
+      </c>
+      <c r="R23">
+        <v>267.09899999999999</v>
+      </c>
+      <c r="S23">
+        <v>166.49799999999999</v>
+      </c>
+      <c r="T23">
+        <v>166.64599999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>158.215</v>
+      </c>
+      <c r="B24">
+        <v>218.51900000000001</v>
+      </c>
+      <c r="C24">
+        <v>196.23599999999999</v>
+      </c>
+      <c r="D24">
+        <v>194.083</v>
+      </c>
+      <c r="E24">
+        <v>183.94</v>
+      </c>
+      <c r="F24">
+        <v>168.85900000000001</v>
+      </c>
+      <c r="G24">
+        <v>217.04900000000001</v>
+      </c>
+      <c r="H24">
+        <v>173.22900000000001</v>
+      </c>
+      <c r="I24">
+        <v>118.86199999999999</v>
+      </c>
+      <c r="J24">
+        <v>213.98</v>
+      </c>
+      <c r="K24">
+        <v>133.541</v>
+      </c>
+      <c r="L24">
+        <v>146.774</v>
+      </c>
+      <c r="M24">
+        <v>196.828</v>
+      </c>
+      <c r="N24">
+        <v>201.602</v>
+      </c>
+      <c r="O24">
+        <v>125.16200000000001</v>
+      </c>
+      <c r="P24">
+        <v>147.33600000000001</v>
+      </c>
+      <c r="Q24">
+        <v>128.624</v>
+      </c>
+      <c r="R24">
+        <v>157.91200000000001</v>
+      </c>
+      <c r="S24">
+        <v>170.45400000000001</v>
+      </c>
+      <c r="T24">
+        <v>226.59399999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/scenario/data_new6.xlsx
+++ b/scenario/data_new6.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="单风场数据" sheetId="14" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>预测值</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -38,6 +38,30 @@
   </si>
   <si>
     <t>20场景</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D-UC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD-UC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>决策成本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>决策成本</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -114,12 +138,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -426,7 +453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1034"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1006" workbookViewId="0">
+    <sheetView topLeftCell="A1006" workbookViewId="0">
       <selection activeCell="R1046" sqref="R1046"/>
     </sheetView>
   </sheetViews>
@@ -76157,1503 +76184,146 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A1">
-        <v>214.83799999999999</v>
-      </c>
-      <c r="B1">
-        <v>214.83799999999999</v>
-      </c>
-      <c r="C1">
-        <v>214.83799999999999</v>
-      </c>
-      <c r="D1">
-        <v>214.83799999999999</v>
-      </c>
-      <c r="E1">
-        <v>214.83799999999999</v>
-      </c>
-      <c r="F1">
-        <v>214.83799999999999</v>
-      </c>
-      <c r="G1">
-        <v>214.83799999999999</v>
-      </c>
-      <c r="H1">
-        <v>214.83799999999999</v>
-      </c>
-      <c r="I1">
-        <v>214.83799999999999</v>
-      </c>
-      <c r="J1">
-        <v>214.83799999999999</v>
-      </c>
-      <c r="K1">
-        <v>214.83799999999999</v>
-      </c>
-      <c r="L1">
-        <v>214.83799999999999</v>
-      </c>
-      <c r="M1">
-        <v>214.83799999999999</v>
-      </c>
-      <c r="N1">
-        <v>214.83799999999999</v>
-      </c>
-      <c r="O1">
-        <v>214.83799999999999</v>
-      </c>
-      <c r="P1">
-        <v>214.83799999999999</v>
-      </c>
-      <c r="Q1">
-        <v>214.83799999999999</v>
-      </c>
-      <c r="R1">
-        <v>214.83799999999999</v>
-      </c>
-      <c r="S1">
-        <v>183.994</v>
-      </c>
-      <c r="T1">
-        <v>214.83799999999999</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>227.928</v>
-      </c>
-      <c r="B2">
-        <v>227.928</v>
-      </c>
-      <c r="C2">
-        <v>227.928</v>
-      </c>
-      <c r="D2">
-        <v>227.928</v>
-      </c>
-      <c r="E2">
-        <v>227.928</v>
-      </c>
-      <c r="F2">
-        <v>227.928</v>
-      </c>
-      <c r="G2">
-        <v>227.928</v>
-      </c>
-      <c r="H2">
-        <v>227.928</v>
-      </c>
-      <c r="I2">
-        <v>227.928</v>
-      </c>
-      <c r="J2">
-        <v>227.928</v>
-      </c>
-      <c r="K2">
-        <v>227.928</v>
-      </c>
-      <c r="L2">
-        <v>227.928</v>
-      </c>
-      <c r="M2">
-        <v>227.928</v>
-      </c>
-      <c r="N2">
-        <v>227.928</v>
-      </c>
-      <c r="O2">
-        <v>227.928</v>
-      </c>
-      <c r="P2">
-        <v>227.928</v>
-      </c>
-      <c r="Q2">
-        <v>227.928</v>
-      </c>
-      <c r="R2">
-        <v>227.928</v>
-      </c>
-      <c r="S2">
-        <v>236.511</v>
-      </c>
-      <c r="T2">
-        <v>227.928</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>263.18400000000003</v>
-      </c>
-      <c r="B3">
-        <v>263.18400000000003</v>
-      </c>
-      <c r="C3">
-        <v>263.18400000000003</v>
-      </c>
-      <c r="D3">
-        <v>263.18400000000003</v>
-      </c>
-      <c r="E3">
-        <v>263.18400000000003</v>
-      </c>
-      <c r="F3">
-        <v>263.18400000000003</v>
-      </c>
-      <c r="G3">
-        <v>263.18400000000003</v>
-      </c>
-      <c r="H3">
-        <v>263.18400000000003</v>
-      </c>
-      <c r="I3">
-        <v>263.18400000000003</v>
-      </c>
-      <c r="J3">
-        <v>263.18400000000003</v>
-      </c>
-      <c r="K3">
-        <v>263.18400000000003</v>
-      </c>
-      <c r="L3">
-        <v>263.18400000000003</v>
-      </c>
-      <c r="M3">
-        <v>263.18400000000003</v>
-      </c>
-      <c r="N3">
-        <v>263.18400000000003</v>
-      </c>
-      <c r="O3">
-        <v>263.18400000000003</v>
-      </c>
-      <c r="P3">
-        <v>263.18400000000003</v>
-      </c>
-      <c r="Q3">
-        <v>263.18400000000003</v>
-      </c>
-      <c r="R3">
-        <v>263.18400000000003</v>
-      </c>
-      <c r="S3">
-        <v>262.11500000000001</v>
-      </c>
-      <c r="T3">
-        <v>263.18400000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>265.86</v>
-      </c>
-      <c r="B4">
-        <v>265.86</v>
-      </c>
-      <c r="C4">
-        <v>265.86</v>
-      </c>
-      <c r="D4">
-        <v>265.86</v>
-      </c>
-      <c r="E4">
-        <v>265.86</v>
-      </c>
-      <c r="F4">
-        <v>265.86</v>
-      </c>
-      <c r="G4">
-        <v>265.86</v>
-      </c>
-      <c r="H4">
-        <v>265.86</v>
-      </c>
-      <c r="I4">
-        <v>265.86</v>
-      </c>
-      <c r="J4">
-        <v>265.86</v>
-      </c>
-      <c r="K4">
-        <v>265.86</v>
-      </c>
-      <c r="L4">
-        <v>265.86</v>
-      </c>
-      <c r="M4">
-        <v>265.86</v>
-      </c>
-      <c r="N4">
-        <v>265.86</v>
-      </c>
-      <c r="O4">
-        <v>265.86</v>
-      </c>
-      <c r="P4">
-        <v>265.86</v>
-      </c>
-      <c r="Q4">
-        <v>265.86</v>
-      </c>
-      <c r="R4">
-        <v>265.86</v>
-      </c>
-      <c r="S4">
-        <v>117.32</v>
-      </c>
-      <c r="T4">
-        <v>265.86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>252.19200000000001</v>
-      </c>
-      <c r="B5">
-        <v>252.19200000000001</v>
-      </c>
-      <c r="C5">
-        <v>252.19200000000001</v>
-      </c>
-      <c r="D5">
-        <v>252.19200000000001</v>
-      </c>
-      <c r="E5">
-        <v>252.19200000000001</v>
-      </c>
-      <c r="F5">
-        <v>252.19200000000001</v>
-      </c>
-      <c r="G5">
-        <v>252.19200000000001</v>
-      </c>
-      <c r="H5">
-        <v>252.19200000000001</v>
-      </c>
-      <c r="I5">
-        <v>252.19200000000001</v>
-      </c>
-      <c r="J5">
-        <v>252.19200000000001</v>
-      </c>
-      <c r="K5">
-        <v>252.19200000000001</v>
-      </c>
-      <c r="L5">
-        <v>252.19200000000001</v>
-      </c>
-      <c r="M5">
-        <v>252.19200000000001</v>
-      </c>
-      <c r="N5">
-        <v>252.19200000000001</v>
-      </c>
-      <c r="O5">
-        <v>252.19200000000001</v>
-      </c>
-      <c r="P5">
-        <v>252.19200000000001</v>
-      </c>
-      <c r="Q5">
-        <v>252.19200000000001</v>
-      </c>
-      <c r="R5">
-        <v>252.19200000000001</v>
-      </c>
-      <c r="S5">
-        <v>300</v>
-      </c>
-      <c r="T5">
-        <v>252.19200000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>300</v>
-      </c>
-      <c r="B6">
-        <v>300</v>
-      </c>
-      <c r="C6">
-        <v>300</v>
-      </c>
-      <c r="D6">
-        <v>300</v>
-      </c>
-      <c r="E6">
-        <v>300</v>
-      </c>
-      <c r="F6">
-        <v>300</v>
-      </c>
-      <c r="G6">
-        <v>300</v>
-      </c>
-      <c r="H6">
-        <v>300</v>
-      </c>
-      <c r="I6">
-        <v>300</v>
-      </c>
-      <c r="J6">
-        <v>300</v>
-      </c>
-      <c r="K6">
-        <v>300</v>
-      </c>
-      <c r="L6">
-        <v>300</v>
-      </c>
-      <c r="M6">
-        <v>300</v>
-      </c>
-      <c r="N6">
-        <v>300</v>
-      </c>
-      <c r="O6">
-        <v>300</v>
-      </c>
-      <c r="P6">
-        <v>300</v>
-      </c>
-      <c r="Q6">
-        <v>300</v>
-      </c>
-      <c r="R6">
-        <v>300</v>
-      </c>
-      <c r="S6">
-        <v>272.11900000000003</v>
-      </c>
-      <c r="T6">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>244.863</v>
-      </c>
-      <c r="B7">
-        <v>300</v>
-      </c>
-      <c r="C7">
-        <v>244.863</v>
-      </c>
-      <c r="D7">
-        <v>244.863</v>
-      </c>
-      <c r="E7">
-        <v>244.863</v>
-      </c>
-      <c r="F7">
-        <v>244.863</v>
-      </c>
-      <c r="G7">
-        <v>244.863</v>
-      </c>
-      <c r="H7">
-        <v>244.863</v>
-      </c>
-      <c r="I7">
-        <v>244.863</v>
-      </c>
-      <c r="J7">
-        <v>244.863</v>
-      </c>
-      <c r="K7">
-        <v>244.863</v>
-      </c>
-      <c r="L7">
-        <v>244.863</v>
-      </c>
-      <c r="M7">
-        <v>244.863</v>
-      </c>
-      <c r="N7">
-        <v>244.863</v>
-      </c>
-      <c r="O7">
-        <v>244.863</v>
-      </c>
-      <c r="P7">
-        <v>244.863</v>
-      </c>
-      <c r="Q7">
-        <v>244.863</v>
-      </c>
-      <c r="R7">
-        <v>244.863</v>
-      </c>
-      <c r="S7">
-        <v>300</v>
-      </c>
-      <c r="T7">
-        <v>244.863</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>300</v>
-      </c>
-      <c r="B8">
-        <v>300</v>
-      </c>
-      <c r="C8">
-        <v>300</v>
-      </c>
-      <c r="D8">
-        <v>300</v>
-      </c>
-      <c r="E8">
-        <v>300</v>
-      </c>
-      <c r="F8">
-        <v>300</v>
-      </c>
-      <c r="G8">
-        <v>300</v>
-      </c>
-      <c r="H8">
-        <v>300</v>
-      </c>
-      <c r="I8">
-        <v>300</v>
-      </c>
-      <c r="J8">
-        <v>300</v>
-      </c>
-      <c r="K8">
-        <v>300</v>
-      </c>
-      <c r="L8">
-        <v>300</v>
-      </c>
-      <c r="M8">
-        <v>300</v>
-      </c>
-      <c r="N8">
-        <v>300</v>
-      </c>
-      <c r="O8">
-        <v>300</v>
-      </c>
-      <c r="P8">
-        <v>300</v>
-      </c>
-      <c r="Q8">
-        <v>300</v>
-      </c>
-      <c r="R8">
-        <v>300</v>
-      </c>
-      <c r="S8">
-        <v>300</v>
-      </c>
-      <c r="T8">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>300</v>
-      </c>
-      <c r="B9">
-        <v>300</v>
-      </c>
-      <c r="C9">
-        <v>290.21100000000001</v>
-      </c>
-      <c r="D9">
-        <v>290.21100000000001</v>
-      </c>
-      <c r="E9">
-        <v>290.21100000000001</v>
-      </c>
-      <c r="F9">
-        <v>290.21100000000001</v>
-      </c>
-      <c r="G9">
-        <v>290.21100000000001</v>
-      </c>
-      <c r="H9">
-        <v>290.21100000000001</v>
-      </c>
-      <c r="I9">
-        <v>259.86799999999999</v>
-      </c>
-      <c r="J9">
-        <v>290.21100000000001</v>
-      </c>
-      <c r="K9">
-        <v>290.21100000000001</v>
-      </c>
-      <c r="L9">
-        <v>290.21100000000001</v>
-      </c>
-      <c r="M9">
-        <v>290.21100000000001</v>
-      </c>
-      <c r="N9">
-        <v>290.21100000000001</v>
-      </c>
-      <c r="O9">
-        <v>290.21100000000001</v>
-      </c>
-      <c r="P9">
-        <v>290.21100000000001</v>
-      </c>
-      <c r="Q9">
-        <v>290.21100000000001</v>
-      </c>
-      <c r="R9">
-        <v>290.21100000000001</v>
-      </c>
-      <c r="S9">
-        <v>291.072</v>
-      </c>
-      <c r="T9">
-        <v>290.21100000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>206.97200000000001</v>
-      </c>
-      <c r="B10">
-        <v>266.55099999999999</v>
-      </c>
-      <c r="C10">
-        <v>190.30500000000001</v>
-      </c>
-      <c r="D10">
-        <v>190.30500000000001</v>
-      </c>
-      <c r="E10">
-        <v>190.30500000000001</v>
-      </c>
-      <c r="F10">
-        <v>190.30500000000001</v>
-      </c>
-      <c r="G10">
-        <v>190.30500000000001</v>
-      </c>
-      <c r="H10">
-        <v>190.30500000000001</v>
-      </c>
-      <c r="I10">
-        <v>289.29700000000003</v>
-      </c>
-      <c r="J10">
-        <v>190.30500000000001</v>
-      </c>
-      <c r="K10">
-        <v>190.30500000000001</v>
-      </c>
-      <c r="L10">
-        <v>190.30500000000001</v>
-      </c>
-      <c r="M10">
-        <v>190.30500000000001</v>
-      </c>
-      <c r="N10">
-        <v>190.30500000000001</v>
-      </c>
-      <c r="O10">
-        <v>190.30500000000001</v>
-      </c>
-      <c r="P10">
-        <v>190.30500000000001</v>
-      </c>
-      <c r="Q10">
-        <v>190.30500000000001</v>
-      </c>
-      <c r="R10">
-        <v>190.30500000000001</v>
-      </c>
-      <c r="S10">
-        <v>300</v>
-      </c>
-      <c r="T10">
-        <v>190.30500000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>300</v>
-      </c>
-      <c r="B11">
-        <v>298.73099999999999</v>
-      </c>
-      <c r="C11">
-        <v>293.47300000000001</v>
-      </c>
-      <c r="D11">
-        <v>293.47300000000001</v>
-      </c>
-      <c r="E11">
-        <v>300</v>
-      </c>
-      <c r="F11">
-        <v>293.47300000000001</v>
-      </c>
-      <c r="G11">
-        <v>293.47300000000001</v>
-      </c>
-      <c r="H11">
-        <v>293.47300000000001</v>
-      </c>
-      <c r="I11">
-        <v>300</v>
-      </c>
-      <c r="J11">
-        <v>293.47300000000001</v>
-      </c>
-      <c r="K11">
-        <v>293.47300000000001</v>
-      </c>
-      <c r="L11">
-        <v>293.47300000000001</v>
-      </c>
-      <c r="M11">
-        <v>293.47300000000001</v>
-      </c>
-      <c r="N11">
-        <v>293.47300000000001</v>
-      </c>
-      <c r="O11">
-        <v>293.47300000000001</v>
-      </c>
-      <c r="P11">
-        <v>293.47300000000001</v>
-      </c>
-      <c r="Q11">
-        <v>293.47300000000001</v>
-      </c>
-      <c r="R11">
-        <v>293.47300000000001</v>
-      </c>
-      <c r="S11">
-        <v>300</v>
-      </c>
-      <c r="T11">
-        <v>293.47300000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>239.66800000000001</v>
-      </c>
-      <c r="B12">
-        <v>212.41300000000001</v>
-      </c>
-      <c r="C12">
-        <v>300</v>
-      </c>
-      <c r="D12">
-        <v>300</v>
-      </c>
-      <c r="E12">
-        <v>300</v>
-      </c>
-      <c r="F12">
-        <v>300</v>
-      </c>
-      <c r="G12">
-        <v>300</v>
-      </c>
-      <c r="H12">
-        <v>300</v>
-      </c>
-      <c r="I12">
-        <v>246.565</v>
-      </c>
-      <c r="J12">
-        <v>300</v>
-      </c>
-      <c r="K12">
-        <v>300</v>
-      </c>
-      <c r="L12">
-        <v>300</v>
-      </c>
-      <c r="M12">
-        <v>300</v>
-      </c>
-      <c r="N12">
-        <v>300</v>
-      </c>
-      <c r="O12">
-        <v>300</v>
-      </c>
-      <c r="P12">
-        <v>300</v>
-      </c>
-      <c r="Q12">
-        <v>300</v>
-      </c>
-      <c r="R12">
-        <v>300</v>
-      </c>
-      <c r="S12">
-        <v>300</v>
-      </c>
-      <c r="T12">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>300</v>
-      </c>
-      <c r="B13">
-        <v>231.715</v>
-      </c>
-      <c r="C13">
-        <v>300</v>
-      </c>
-      <c r="D13">
-        <v>300</v>
-      </c>
-      <c r="E13">
-        <v>300</v>
-      </c>
-      <c r="F13">
-        <v>300</v>
-      </c>
-      <c r="G13">
-        <v>300</v>
-      </c>
-      <c r="H13">
-        <v>300</v>
-      </c>
-      <c r="I13">
-        <v>178.136</v>
-      </c>
-      <c r="J13">
-        <v>300</v>
-      </c>
-      <c r="K13">
-        <v>300</v>
-      </c>
-      <c r="L13">
-        <v>300</v>
-      </c>
-      <c r="M13">
-        <v>300</v>
-      </c>
-      <c r="N13">
-        <v>300</v>
-      </c>
-      <c r="O13">
-        <v>300</v>
-      </c>
-      <c r="P13">
-        <v>300</v>
-      </c>
-      <c r="Q13">
-        <v>300</v>
-      </c>
-      <c r="R13">
-        <v>300</v>
-      </c>
-      <c r="S13">
-        <v>265.24799999999999</v>
-      </c>
-      <c r="T13">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>206.816</v>
-      </c>
-      <c r="B14">
-        <v>225.148</v>
-      </c>
-      <c r="C14">
-        <v>266.42</v>
-      </c>
-      <c r="D14">
-        <v>266.42</v>
-      </c>
-      <c r="E14">
-        <v>287.29000000000002</v>
-      </c>
-      <c r="F14">
-        <v>266.42</v>
-      </c>
-      <c r="G14">
-        <v>266.42</v>
-      </c>
-      <c r="H14">
-        <v>266.42</v>
-      </c>
-      <c r="I14">
-        <v>300</v>
-      </c>
-      <c r="J14">
-        <v>300</v>
-      </c>
-      <c r="K14">
-        <v>266.42</v>
-      </c>
-      <c r="L14">
-        <v>266.42</v>
-      </c>
-      <c r="M14">
-        <v>266.42</v>
-      </c>
-      <c r="N14">
-        <v>266.42</v>
-      </c>
-      <c r="O14">
-        <v>266.42</v>
-      </c>
-      <c r="P14">
-        <v>266.42</v>
-      </c>
-      <c r="Q14">
-        <v>266.42</v>
-      </c>
-      <c r="R14">
-        <v>280.05500000000001</v>
-      </c>
-      <c r="S14">
-        <v>298.14800000000002</v>
-      </c>
-      <c r="T14">
-        <v>266.42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>257.05500000000001</v>
-      </c>
-      <c r="B15">
-        <v>300</v>
-      </c>
-      <c r="C15">
-        <v>300</v>
-      </c>
-      <c r="D15">
-        <v>300</v>
-      </c>
-      <c r="E15">
-        <v>159.626</v>
-      </c>
-      <c r="F15">
-        <v>300</v>
-      </c>
-      <c r="G15">
-        <v>300</v>
-      </c>
-      <c r="H15">
-        <v>300</v>
-      </c>
-      <c r="I15">
-        <v>267.86399999999998</v>
-      </c>
-      <c r="J15">
-        <v>278.69799999999998</v>
-      </c>
-      <c r="K15">
-        <v>300</v>
-      </c>
-      <c r="L15">
-        <v>300</v>
-      </c>
-      <c r="M15">
-        <v>300</v>
-      </c>
-      <c r="N15">
-        <v>300</v>
-      </c>
-      <c r="O15">
-        <v>300</v>
-      </c>
-      <c r="P15">
-        <v>300</v>
-      </c>
-      <c r="Q15">
-        <v>300</v>
-      </c>
-      <c r="R15">
-        <v>272.69099999999997</v>
-      </c>
-      <c r="S15">
-        <v>278.173</v>
-      </c>
-      <c r="T15">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>221.80799999999999</v>
-      </c>
-      <c r="B16">
-        <v>172.011</v>
-      </c>
-      <c r="C16">
-        <v>221.93700000000001</v>
-      </c>
-      <c r="D16">
-        <v>300</v>
-      </c>
-      <c r="E16">
-        <v>217.66900000000001</v>
-      </c>
-      <c r="F16">
-        <v>193.31200000000001</v>
-      </c>
-      <c r="G16">
-        <v>300</v>
-      </c>
-      <c r="H16">
-        <v>300</v>
-      </c>
-      <c r="I16">
-        <v>300</v>
-      </c>
-      <c r="J16">
-        <v>300</v>
-      </c>
-      <c r="K16">
-        <v>300</v>
-      </c>
-      <c r="L16">
-        <v>300</v>
-      </c>
-      <c r="M16">
-        <v>300</v>
-      </c>
-      <c r="N16">
-        <v>300</v>
-      </c>
-      <c r="O16">
-        <v>300</v>
-      </c>
-      <c r="P16">
-        <v>300</v>
-      </c>
-      <c r="Q16">
-        <v>300</v>
-      </c>
-      <c r="R16">
-        <v>300</v>
-      </c>
-      <c r="S16">
-        <v>228.054</v>
-      </c>
-      <c r="T16">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>300</v>
-      </c>
-      <c r="B17">
-        <v>176.28899999999999</v>
-      </c>
-      <c r="C17">
-        <v>231.10499999999999</v>
-      </c>
-      <c r="D17">
-        <v>267.17200000000003</v>
-      </c>
-      <c r="E17">
-        <v>206.25200000000001</v>
-      </c>
-      <c r="F17">
-        <v>272.14800000000002</v>
-      </c>
-      <c r="G17">
-        <v>267.17200000000003</v>
-      </c>
-      <c r="H17">
-        <v>267.17200000000003</v>
-      </c>
-      <c r="I17">
-        <v>225.81200000000001</v>
-      </c>
-      <c r="J17">
-        <v>183.97200000000001</v>
-      </c>
-      <c r="K17">
-        <v>267.17200000000003</v>
-      </c>
-      <c r="L17">
-        <v>267.17200000000003</v>
-      </c>
-      <c r="M17">
-        <v>267.17200000000003</v>
-      </c>
-      <c r="N17">
-        <v>267.17200000000003</v>
-      </c>
-      <c r="O17">
-        <v>267.17200000000003</v>
-      </c>
-      <c r="P17">
-        <v>267.17200000000003</v>
-      </c>
-      <c r="Q17">
-        <v>267.17200000000003</v>
-      </c>
-      <c r="R17">
-        <v>199.83699999999999</v>
-      </c>
-      <c r="S17">
-        <v>143.696</v>
-      </c>
-      <c r="T17">
-        <v>267.17200000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>228.625</v>
-      </c>
-      <c r="B18">
-        <v>223.905</v>
-      </c>
-      <c r="C18">
-        <v>300</v>
-      </c>
-      <c r="D18">
-        <v>211.398</v>
-      </c>
-      <c r="E18">
-        <v>195.08</v>
-      </c>
-      <c r="F18">
-        <v>199.85300000000001</v>
-      </c>
-      <c r="G18">
-        <v>211.398</v>
-      </c>
-      <c r="H18">
-        <v>211.398</v>
-      </c>
-      <c r="I18">
-        <v>185.88900000000001</v>
-      </c>
-      <c r="J18">
-        <v>233.73699999999999</v>
-      </c>
-      <c r="K18">
-        <v>211.398</v>
-      </c>
-      <c r="L18">
-        <v>211.398</v>
-      </c>
-      <c r="M18">
-        <v>211.398</v>
-      </c>
-      <c r="N18">
-        <v>211.398</v>
-      </c>
-      <c r="O18">
-        <v>211.398</v>
-      </c>
-      <c r="P18">
-        <v>211.398</v>
-      </c>
-      <c r="Q18">
-        <v>211.398</v>
-      </c>
-      <c r="R18">
-        <v>216.99199999999999</v>
-      </c>
-      <c r="S18">
-        <v>243.44</v>
-      </c>
-      <c r="T18">
-        <v>211.398</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>133.947</v>
-      </c>
-      <c r="B19">
-        <v>196.93299999999999</v>
-      </c>
-      <c r="C19">
-        <v>217.744</v>
-      </c>
-      <c r="D19">
-        <v>203.02199999999999</v>
-      </c>
-      <c r="E19">
-        <v>149.273</v>
-      </c>
-      <c r="F19">
-        <v>130.89400000000001</v>
-      </c>
-      <c r="G19">
-        <v>203.02199999999999</v>
-      </c>
-      <c r="H19">
-        <v>203.02199999999999</v>
-      </c>
-      <c r="I19">
-        <v>241.256</v>
-      </c>
-      <c r="J19">
-        <v>242.43</v>
-      </c>
-      <c r="K19">
-        <v>234.26</v>
-      </c>
-      <c r="L19">
-        <v>203.02199999999999</v>
-      </c>
-      <c r="M19">
-        <v>203.02199999999999</v>
-      </c>
-      <c r="N19">
-        <v>203.02199999999999</v>
-      </c>
-      <c r="O19">
-        <v>203.02199999999999</v>
-      </c>
-      <c r="P19">
-        <v>134.22</v>
-      </c>
-      <c r="Q19">
-        <v>203.02199999999999</v>
-      </c>
-      <c r="R19">
-        <v>110.657</v>
-      </c>
-      <c r="S19">
-        <v>222.958</v>
-      </c>
-      <c r="T19">
-        <v>196.28100000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>204.09800000000001</v>
-      </c>
-      <c r="B20">
-        <v>280.48200000000003</v>
-      </c>
-      <c r="C20">
-        <v>228.90700000000001</v>
-      </c>
-      <c r="D20">
-        <v>189.58799999999999</v>
-      </c>
-      <c r="E20">
-        <v>257.38499999999999</v>
-      </c>
-      <c r="F20">
-        <v>137.47900000000001</v>
-      </c>
-      <c r="G20">
-        <v>189.58799999999999</v>
-      </c>
-      <c r="H20">
-        <v>189.58799999999999</v>
-      </c>
-      <c r="I20">
-        <v>177.08699999999999</v>
-      </c>
-      <c r="J20">
-        <v>166.101</v>
-      </c>
-      <c r="K20">
-        <v>247.43</v>
-      </c>
-      <c r="L20">
-        <v>189.58799999999999</v>
-      </c>
-      <c r="M20">
-        <v>189.58799999999999</v>
-      </c>
-      <c r="N20">
-        <v>189.58799999999999</v>
-      </c>
-      <c r="O20">
-        <v>189.58799999999999</v>
-      </c>
-      <c r="P20">
-        <v>157.102</v>
-      </c>
-      <c r="Q20">
-        <v>189.58799999999999</v>
-      </c>
-      <c r="R20">
-        <v>122.619</v>
-      </c>
-      <c r="S20">
-        <v>155.57900000000001</v>
-      </c>
-      <c r="T20">
-        <v>210.685</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>172.76400000000001</v>
-      </c>
-      <c r="B21">
-        <v>184.56200000000001</v>
-      </c>
-      <c r="C21">
-        <v>150.53800000000001</v>
-      </c>
-      <c r="D21">
-        <v>267.66500000000002</v>
-      </c>
-      <c r="E21">
-        <v>300</v>
-      </c>
-      <c r="F21">
-        <v>154.642</v>
-      </c>
-      <c r="G21">
-        <v>257.80099999999999</v>
-      </c>
-      <c r="H21">
-        <v>267.66500000000002</v>
-      </c>
-      <c r="I21">
-        <v>170.71</v>
-      </c>
-      <c r="J21">
-        <v>124.64</v>
-      </c>
-      <c r="K21">
-        <v>251.81100000000001</v>
-      </c>
-      <c r="L21">
-        <v>267.66500000000002</v>
-      </c>
-      <c r="M21">
-        <v>261.39299999999997</v>
-      </c>
-      <c r="N21">
-        <v>267.66500000000002</v>
-      </c>
-      <c r="O21">
-        <v>267.66500000000002</v>
-      </c>
-      <c r="P21">
-        <v>223.04400000000001</v>
-      </c>
-      <c r="Q21">
-        <v>201.65799999999999</v>
-      </c>
-      <c r="R21">
-        <v>218.15899999999999</v>
-      </c>
-      <c r="S21">
-        <v>181.005</v>
-      </c>
-      <c r="T21">
-        <v>264.46699999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>114.646</v>
-      </c>
-      <c r="B22">
-        <v>214.74799999999999</v>
-      </c>
-      <c r="C22">
-        <v>190.05699999999999</v>
-      </c>
-      <c r="D22">
-        <v>101.883</v>
-      </c>
-      <c r="E22">
-        <v>247.435</v>
-      </c>
-      <c r="F22">
-        <v>104.52800000000001</v>
-      </c>
-      <c r="G22">
-        <v>196.624</v>
-      </c>
-      <c r="H22">
-        <v>101.883</v>
-      </c>
-      <c r="I22">
-        <v>140.22300000000001</v>
-      </c>
-      <c r="J22">
-        <v>274.03199999999998</v>
-      </c>
-      <c r="K22">
-        <v>171.79300000000001</v>
-      </c>
-      <c r="L22">
-        <v>101.883</v>
-      </c>
-      <c r="M22">
-        <v>162.33000000000001</v>
-      </c>
-      <c r="N22">
-        <v>101.883</v>
-      </c>
-      <c r="O22">
-        <v>101.883</v>
-      </c>
-      <c r="P22">
-        <v>230.59100000000001</v>
-      </c>
-      <c r="Q22">
-        <v>222.82599999999999</v>
-      </c>
-      <c r="R22">
-        <v>181.55500000000001</v>
-      </c>
-      <c r="S22">
-        <v>227.52500000000001</v>
-      </c>
-      <c r="T22">
-        <v>208.61500000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A23">
-        <v>224.93799999999999</v>
-      </c>
-      <c r="B23">
-        <v>240.02500000000001</v>
-      </c>
-      <c r="C23">
-        <v>261.71300000000002</v>
-      </c>
-      <c r="D23">
-        <v>229.46600000000001</v>
-      </c>
-      <c r="E23">
-        <v>206.64</v>
-      </c>
-      <c r="F23">
-        <v>259.12799999999999</v>
-      </c>
-      <c r="G23">
-        <v>271.39400000000001</v>
-      </c>
-      <c r="H23">
-        <v>248.29499999999999</v>
-      </c>
-      <c r="I23">
-        <v>222.315</v>
-      </c>
-      <c r="J23">
-        <v>200.54599999999999</v>
-      </c>
-      <c r="K23">
-        <v>252.53299999999999</v>
-      </c>
-      <c r="L23">
-        <v>147.64699999999999</v>
-      </c>
-      <c r="M23">
-        <v>235.202</v>
-      </c>
-      <c r="N23">
-        <v>167.75299999999999</v>
-      </c>
-      <c r="O23">
-        <v>157.233</v>
-      </c>
-      <c r="P23">
-        <v>300</v>
-      </c>
-      <c r="Q23">
-        <v>165.97499999999999</v>
-      </c>
-      <c r="R23">
-        <v>267.09899999999999</v>
-      </c>
-      <c r="S23">
-        <v>166.49799999999999</v>
-      </c>
-      <c r="T23">
-        <v>166.64599999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A24">
-        <v>158.215</v>
-      </c>
-      <c r="B24">
-        <v>218.51900000000001</v>
-      </c>
-      <c r="C24">
-        <v>196.23599999999999</v>
-      </c>
-      <c r="D24">
-        <v>194.083</v>
-      </c>
-      <c r="E24">
-        <v>183.94</v>
-      </c>
-      <c r="F24">
-        <v>168.85900000000001</v>
-      </c>
-      <c r="G24">
-        <v>217.04900000000001</v>
-      </c>
-      <c r="H24">
-        <v>173.22900000000001</v>
-      </c>
-      <c r="I24">
-        <v>118.86199999999999</v>
-      </c>
-      <c r="J24">
-        <v>213.98</v>
-      </c>
-      <c r="K24">
-        <v>133.541</v>
-      </c>
-      <c r="L24">
-        <v>146.774</v>
-      </c>
-      <c r="M24">
-        <v>196.828</v>
-      </c>
-      <c r="N24">
-        <v>201.602</v>
-      </c>
-      <c r="O24">
-        <v>125.16200000000001</v>
-      </c>
-      <c r="P24">
-        <v>147.33600000000001</v>
-      </c>
-      <c r="Q24">
-        <v>128.624</v>
-      </c>
-      <c r="R24">
-        <v>157.91200000000001</v>
-      </c>
-      <c r="S24">
-        <v>170.45400000000001</v>
-      </c>
-      <c r="T24">
-        <v>226.59399999999999</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
